--- a/data/codebook_datauru.xlsx
+++ b/data/codebook_datauru.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Dropbox\cursos\IntroR\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Dropbox\cursos\Medición y Diseño de investigación (UMAD)\Laboratorio\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7A1335-E8EC-4B02-A9BB-FDA192A7BF75}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{981AE640-EED8-4EA4-9C1B-02F968BB0E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{82CB72E2-AE1B-43E7-BCA2-266FCDD1417E}"/>
   </bookViews>
@@ -36,42 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
-    <t>Population growth (annual %)</t>
-  </si>
-  <si>
-    <t>pop_growth</t>
-  </si>
-  <si>
-    <t>GDP per capita growth (annual %)</t>
-  </si>
-  <si>
-    <t>gdp_pc_growth</t>
-  </si>
-  <si>
-    <t>Population, total</t>
-  </si>
-  <si>
-    <t>population</t>
-  </si>
-  <si>
-    <t>GDP (constant LCU)</t>
-  </si>
-  <si>
-    <t>gdp_lcu</t>
-  </si>
-  <si>
-    <t>Inflation, consumer prices (annual %)</t>
-  </si>
-  <si>
-    <t>inflation</t>
-  </si>
-  <si>
-    <t>Unemployment, total (% of total labor force) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>unemployment</t>
-  </si>
-  <si>
     <t>partido</t>
   </si>
   <si>
@@ -103,6 +67,42 @@
   </si>
   <si>
     <t>Equipos</t>
+  </si>
+  <si>
+    <t>crec_pbi</t>
+  </si>
+  <si>
+    <t>crec_pob</t>
+  </si>
+  <si>
+    <t>poblacion</t>
+  </si>
+  <si>
+    <t>pbi</t>
+  </si>
+  <si>
+    <t>inflacion</t>
+  </si>
+  <si>
+    <t>desempleo</t>
+  </si>
+  <si>
+    <t>Crecimiento poblacional (anual %)</t>
+  </si>
+  <si>
+    <t>Crecimiento PBI per cápita (anual %)</t>
+  </si>
+  <si>
+    <t>Población, total</t>
+  </si>
+  <si>
+    <t>PBI (LCU constantes)</t>
+  </si>
+  <si>
+    <t>Inflación (anual %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desempleo, total (% de la fuerza laboral total) </t>
   </si>
 </sst>
 </file>
@@ -477,7 +477,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -488,106 +488,106 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
         <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
